--- a/biology/Botanique/Revue_horticole/Revue_horticole.xlsx
+++ b/biology/Botanique/Revue_horticole/Revue_horticole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Revue horticole (en abrégé Rev. Hort.[1]) était un magazine illustré contenant des articles de description botanique édité par la Société nationale d'horticulture de France et publiées de 1829 à 1974 sous le nom de Revue horticole. Elle résumait « tout ce qui paraissait intéressant en jardinage, horticulture, etc. ». En 1959 la SNHF propose un abonnement conjoint à la Revue horticole et à Jardins de France[2].
-Au total 146 volumes ont été publiés de 1829 à 1974, année à partir de laquelle la revue fut remplacée par « P.H.M. revue horticole »[3] fusion de Pépiniéristes, horticulteurs, maraîchers  (ISSN 0031-5087) et de Revue horticole (Paris)  (ISSN 0035-3302)[4].
+La Revue horticole (en abrégé Rev. Hort.) était un magazine illustré contenant des articles de description botanique édité par la Société nationale d'horticulture de France et publiées de 1829 à 1974 sous le nom de Revue horticole. Elle résumait « tout ce qui paraissait intéressant en jardinage, horticulture, etc. ». En 1959 la SNHF propose un abonnement conjoint à la Revue horticole et à Jardins de France.
+Au total 146 volumes ont été publiés de 1829 à 1974, année à partir de laquelle la revue fut remplacée par « P.H.M. revue horticole » fusion de Pépiniéristes, horticulteurs, maraîchers  (ISSN 0031-5087) et de Revue horticole (Paris)  (ISSN 0035-3302).
 Alphonse Du Breuil et Élie-Abel Carrière ont été rédacteur en chef de la revue.
-P.H.M. revue horticole s’arrêta en 2010, absorbé par Lien horticole  (ISSN 0293-6852)[4].
+P.H.M. revue horticole s’arrêta en 2010, absorbé par Lien horticole  (ISSN 0293-6852).
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Publications de Revue horticole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Série no 1, vol. 1-3, 1829-1840 ;
 Série no 2, vol. 1-5, 1841-1846 ;
